--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G658"/>
+  <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15582,6 +15582,52 @@
         <v>4115670000</v>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B659" t="n">
+        <v>4554.3798828125</v>
+      </c>
+      <c r="C659" t="n">
+        <v>4564.740234375</v>
+      </c>
+      <c r="D659" t="n">
+        <v>4527.56005859375</v>
+      </c>
+      <c r="E659" t="n">
+        <v>4534.8701171875</v>
+      </c>
+      <c r="F659" t="n">
+        <v>4534.8701171875</v>
+      </c>
+      <c r="G659" t="n">
+        <v>3761770000</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>4550.16015625</v>
+      </c>
+      <c r="C660" t="n">
+        <v>4555</v>
+      </c>
+      <c r="D660" t="n">
+        <v>4535.7900390625</v>
+      </c>
+      <c r="E660" t="n">
+        <v>4536.33984375</v>
+      </c>
+      <c r="F660" t="n">
+        <v>4536.33984375</v>
+      </c>
+      <c r="G660" t="n">
+        <v>3570190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G660"/>
+  <dimension ref="A1:G672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15628,6 +15628,282 @@
         <v>3570190000</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>4550.16015625</v>
+      </c>
+      <c r="C661" t="n">
+        <v>4555</v>
+      </c>
+      <c r="D661" t="n">
+        <v>4535.7900390625</v>
+      </c>
+      <c r="E661" t="n">
+        <v>4536.33984375</v>
+      </c>
+      <c r="F661" t="n">
+        <v>4536.33984375</v>
+      </c>
+      <c r="G661" t="n">
+        <v>3570190000</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>4550.16015625</v>
+      </c>
+      <c r="C662" t="n">
+        <v>4555</v>
+      </c>
+      <c r="D662" t="n">
+        <v>4535.7900390625</v>
+      </c>
+      <c r="E662" t="n">
+        <v>4536.33984375</v>
+      </c>
+      <c r="F662" t="n">
+        <v>4536.33984375</v>
+      </c>
+      <c r="G662" t="n">
+        <v>3570190000</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>4543.39013671875</v>
+      </c>
+      <c r="C663" t="n">
+        <v>4563.41015625</v>
+      </c>
+      <c r="D663" t="n">
+        <v>4541.2900390625</v>
+      </c>
+      <c r="E663" t="n">
+        <v>4554.64013671875</v>
+      </c>
+      <c r="F663" t="n">
+        <v>4554.64013671875</v>
+      </c>
+      <c r="G663" t="n">
+        <v>3856250000</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>4555.18994140625</v>
+      </c>
+      <c r="C664" t="n">
+        <v>4580.6201171875</v>
+      </c>
+      <c r="D664" t="n">
+        <v>4552.419921875</v>
+      </c>
+      <c r="E664" t="n">
+        <v>4567.4599609375</v>
+      </c>
+      <c r="F664" t="n">
+        <v>4567.4599609375</v>
+      </c>
+      <c r="G664" t="n">
+        <v>3812470000</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4558.9599609375</v>
+      </c>
+      <c r="C665" t="n">
+        <v>4582.47021484375</v>
+      </c>
+      <c r="D665" t="n">
+        <v>4547.580078125</v>
+      </c>
+      <c r="E665" t="n">
+        <v>4566.75</v>
+      </c>
+      <c r="F665" t="n">
+        <v>4566.75</v>
+      </c>
+      <c r="G665" t="n">
+        <v>3990290000</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>4598.259765625</v>
+      </c>
+      <c r="C666" t="n">
+        <v>4607.06982421875</v>
+      </c>
+      <c r="D666" t="n">
+        <v>4528.56005859375</v>
+      </c>
+      <c r="E666" t="n">
+        <v>4537.41015625</v>
+      </c>
+      <c r="F666" t="n">
+        <v>4537.41015625</v>
+      </c>
+      <c r="G666" t="n">
+        <v>4553210000</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>4565.75</v>
+      </c>
+      <c r="C667" t="n">
+        <v>4590.16015625</v>
+      </c>
+      <c r="D667" t="n">
+        <v>4564.009765625</v>
+      </c>
+      <c r="E667" t="n">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="F667" t="n">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="G667" t="n">
+        <v>3981010000</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>4565.75</v>
+      </c>
+      <c r="C668" t="n">
+        <v>4590.16015625</v>
+      </c>
+      <c r="D668" t="n">
+        <v>4564.009765625</v>
+      </c>
+      <c r="E668" t="n">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="F668" t="n">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="G668" t="n">
+        <v>3981010000</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>4565.75</v>
+      </c>
+      <c r="C669" t="n">
+        <v>4590.16015625</v>
+      </c>
+      <c r="D669" t="n">
+        <v>4564.009765625</v>
+      </c>
+      <c r="E669" t="n">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="F669" t="n">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="G669" t="n">
+        <v>3981010000</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>4584.81982421875</v>
+      </c>
+      <c r="C670" t="n">
+        <v>4594.22021484375</v>
+      </c>
+      <c r="D670" t="n">
+        <v>4573.14013671875</v>
+      </c>
+      <c r="E670" t="n">
+        <v>4588.9599609375</v>
+      </c>
+      <c r="F670" t="n">
+        <v>4588.9599609375</v>
+      </c>
+      <c r="G670" t="n">
+        <v>4503600000</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>4578.830078125</v>
+      </c>
+      <c r="C671" t="n">
+        <v>4584.6201171875</v>
+      </c>
+      <c r="D671" t="n">
+        <v>4567.52978515625</v>
+      </c>
+      <c r="E671" t="n">
+        <v>4576.72998046875</v>
+      </c>
+      <c r="F671" t="n">
+        <v>4576.72998046875</v>
+      </c>
+      <c r="G671" t="n">
+        <v>4042370000</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>4550.93017578125</v>
+      </c>
+      <c r="C672" t="n">
+        <v>4550.93017578125</v>
+      </c>
+      <c r="D672" t="n">
+        <v>4505.75</v>
+      </c>
+      <c r="E672" t="n">
+        <v>4513.39013671875</v>
+      </c>
+      <c r="F672" t="n">
+        <v>4513.39013671875</v>
+      </c>
+      <c r="G672" t="n">
+        <v>4270710000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G672"/>
+  <dimension ref="A1:G673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15904,6 +15904,29 @@
         <v>4270710000</v>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>4494.27001953125</v>
+      </c>
+      <c r="C673" t="n">
+        <v>4519.490234375</v>
+      </c>
+      <c r="D673" t="n">
+        <v>4485.5400390625</v>
+      </c>
+      <c r="E673" t="n">
+        <v>4501.89013671875</v>
+      </c>
+      <c r="F673" t="n">
+        <v>4501.89013671875</v>
+      </c>
+      <c r="G673" t="n">
+        <v>4149120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G692"/>
+  <dimension ref="A1:G716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16364,6 +16364,558 @@
         <v>3522760000</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B693" t="n">
+        <v>4396.43994140625</v>
+      </c>
+      <c r="C693" t="n">
+        <v>4443.18017578125</v>
+      </c>
+      <c r="D693" t="n">
+        <v>4396.43994140625</v>
+      </c>
+      <c r="E693" t="n">
+        <v>4436.009765625</v>
+      </c>
+      <c r="F693" t="n">
+        <v>4436.009765625</v>
+      </c>
+      <c r="G693" t="n">
+        <v>3837270000</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B694" t="n">
+        <v>4455.16015625</v>
+      </c>
+      <c r="C694" t="n">
+        <v>4458.2998046875</v>
+      </c>
+      <c r="D694" t="n">
+        <v>4375.5498046875</v>
+      </c>
+      <c r="E694" t="n">
+        <v>4376.31005859375</v>
+      </c>
+      <c r="F694" t="n">
+        <v>4376.31005859375</v>
+      </c>
+      <c r="G694" t="n">
+        <v>3723470000</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B695" t="n">
+        <v>4389.3798828125</v>
+      </c>
+      <c r="C695" t="n">
+        <v>4418.4599609375</v>
+      </c>
+      <c r="D695" t="n">
+        <v>4356.2900390625</v>
+      </c>
+      <c r="E695" t="n">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="F695" t="n">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="G695" t="n">
+        <v>3296180000</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="B696" t="n">
+        <v>4389.3798828125</v>
+      </c>
+      <c r="C696" t="n">
+        <v>4418.4599609375</v>
+      </c>
+      <c r="D696" t="n">
+        <v>4356.2900390625</v>
+      </c>
+      <c r="E696" t="n">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="F696" t="n">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="G696" t="n">
+        <v>3296180000</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B697" t="n">
+        <v>4389.3798828125</v>
+      </c>
+      <c r="C697" t="n">
+        <v>4418.4599609375</v>
+      </c>
+      <c r="D697" t="n">
+        <v>4356.2900390625</v>
+      </c>
+      <c r="E697" t="n">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="F697" t="n">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="G697" t="n">
+        <v>3296180000</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B698" t="n">
+        <v>4426.02978515625</v>
+      </c>
+      <c r="C698" t="n">
+        <v>4439.56005859375</v>
+      </c>
+      <c r="D698" t="n">
+        <v>4414.97998046875</v>
+      </c>
+      <c r="E698" t="n">
+        <v>4433.31005859375</v>
+      </c>
+      <c r="F698" t="n">
+        <v>4433.31005859375</v>
+      </c>
+      <c r="G698" t="n">
+        <v>2957230000</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B699" t="n">
+        <v>4432.75</v>
+      </c>
+      <c r="C699" t="n">
+        <v>4500.14013671875</v>
+      </c>
+      <c r="D699" t="n">
+        <v>4431.68017578125</v>
+      </c>
+      <c r="E699" t="n">
+        <v>4497.6298828125</v>
+      </c>
+      <c r="F699" t="n">
+        <v>4497.6298828125</v>
+      </c>
+      <c r="G699" t="n">
+        <v>3354820000</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B700" t="n">
+        <v>4500.33984375</v>
+      </c>
+      <c r="C700" t="n">
+        <v>4521.64990234375</v>
+      </c>
+      <c r="D700" t="n">
+        <v>4493.58984375</v>
+      </c>
+      <c r="E700" t="n">
+        <v>4514.8701171875</v>
+      </c>
+      <c r="F700" t="n">
+        <v>4514.8701171875</v>
+      </c>
+      <c r="G700" t="n">
+        <v>3064110000</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B701" t="n">
+        <v>4517.009765625</v>
+      </c>
+      <c r="C701" t="n">
+        <v>4532.259765625</v>
+      </c>
+      <c r="D701" t="n">
+        <v>4507.39013671875</v>
+      </c>
+      <c r="E701" t="n">
+        <v>4507.66015625</v>
+      </c>
+      <c r="F701" t="n">
+        <v>4507.66015625</v>
+      </c>
+      <c r="G701" t="n">
+        <v>3946360000</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B702" t="n">
+        <v>4530.60009765625</v>
+      </c>
+      <c r="C702" t="n">
+        <v>4541.25</v>
+      </c>
+      <c r="D702" t="n">
+        <v>4501.35009765625</v>
+      </c>
+      <c r="E702" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="F702" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="G702" t="n">
+        <v>3246260000</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="B703" t="n">
+        <v>4530.60009765625</v>
+      </c>
+      <c r="C703" t="n">
+        <v>4541.25</v>
+      </c>
+      <c r="D703" t="n">
+        <v>4501.35009765625</v>
+      </c>
+      <c r="E703" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="F703" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="G703" t="n">
+        <v>3246260000</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B704" t="n">
+        <v>4530.60009765625</v>
+      </c>
+      <c r="C704" t="n">
+        <v>4541.25</v>
+      </c>
+      <c r="D704" t="n">
+        <v>4501.35009765625</v>
+      </c>
+      <c r="E704" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="F704" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="G704" t="n">
+        <v>3246260000</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B705" t="n">
+        <v>4530.60009765625</v>
+      </c>
+      <c r="C705" t="n">
+        <v>4541.25</v>
+      </c>
+      <c r="D705" t="n">
+        <v>4501.35009765625</v>
+      </c>
+      <c r="E705" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="F705" t="n">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="G705" t="n">
+        <v>3246260000</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B706" t="n">
+        <v>4510.06005859375</v>
+      </c>
+      <c r="C706" t="n">
+        <v>4514.2900390625</v>
+      </c>
+      <c r="D706" t="n">
+        <v>4496.009765625</v>
+      </c>
+      <c r="E706" t="n">
+        <v>4496.830078125</v>
+      </c>
+      <c r="F706" t="n">
+        <v>4496.830078125</v>
+      </c>
+      <c r="G706" t="n">
+        <v>3526250000</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B707" t="n">
+        <v>4490.35009765625</v>
+      </c>
+      <c r="C707" t="n">
+        <v>4490.35009765625</v>
+      </c>
+      <c r="D707" t="n">
+        <v>4442.3798828125</v>
+      </c>
+      <c r="E707" t="n">
+        <v>4465.47998046875</v>
+      </c>
+      <c r="F707" t="n">
+        <v>4465.47998046875</v>
+      </c>
+      <c r="G707" t="n">
+        <v>3418850000</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B708" t="n">
+        <v>4434.5498046875</v>
+      </c>
+      <c r="C708" t="n">
+        <v>4457.81005859375</v>
+      </c>
+      <c r="D708" t="n">
+        <v>4430.4599609375</v>
+      </c>
+      <c r="E708" t="n">
+        <v>4451.14013671875</v>
+      </c>
+      <c r="F708" t="n">
+        <v>4451.14013671875</v>
+      </c>
+      <c r="G708" t="n">
+        <v>3763760000</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B709" t="n">
+        <v>4451.2998046875</v>
+      </c>
+      <c r="C709" t="n">
+        <v>4473.52978515625</v>
+      </c>
+      <c r="D709" t="n">
+        <v>4448.3798828125</v>
+      </c>
+      <c r="E709" t="n">
+        <v>4457.490234375</v>
+      </c>
+      <c r="F709" t="n">
+        <v>4457.490234375</v>
+      </c>
+      <c r="G709" t="n">
+        <v>3259290000</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4451.2998046875</v>
+      </c>
+      <c r="C710" t="n">
+        <v>4473.52978515625</v>
+      </c>
+      <c r="D710" t="n">
+        <v>4448.3798828125</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4457.490234375</v>
+      </c>
+      <c r="F710" t="n">
+        <v>4457.490234375</v>
+      </c>
+      <c r="G710" t="n">
+        <v>3259290000</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B711" t="n">
+        <v>4451.2998046875</v>
+      </c>
+      <c r="C711" t="n">
+        <v>4473.52978515625</v>
+      </c>
+      <c r="D711" t="n">
+        <v>4448.3798828125</v>
+      </c>
+      <c r="E711" t="n">
+        <v>4457.490234375</v>
+      </c>
+      <c r="F711" t="n">
+        <v>4457.490234375</v>
+      </c>
+      <c r="G711" t="n">
+        <v>3259290000</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B712" t="n">
+        <v>4480.97998046875</v>
+      </c>
+      <c r="C712" t="n">
+        <v>4490.77001953125</v>
+      </c>
+      <c r="D712" t="n">
+        <v>4467.89013671875</v>
+      </c>
+      <c r="E712" t="n">
+        <v>4487.4599609375</v>
+      </c>
+      <c r="F712" t="n">
+        <v>4487.4599609375</v>
+      </c>
+      <c r="G712" t="n">
+        <v>3369920000</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B713" t="n">
+        <v>4473.27001953125</v>
+      </c>
+      <c r="C713" t="n">
+        <v>4487.10986328125</v>
+      </c>
+      <c r="D713" t="n">
+        <v>4456.830078125</v>
+      </c>
+      <c r="E713" t="n">
+        <v>4461.89990234375</v>
+      </c>
+      <c r="F713" t="n">
+        <v>4461.89990234375</v>
+      </c>
+      <c r="G713" t="n">
+        <v>3435740000</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B714" t="n">
+        <v>4462.64990234375</v>
+      </c>
+      <c r="C714" t="n">
+        <v>4479.39013671875</v>
+      </c>
+      <c r="D714" t="n">
+        <v>4453.52001953125</v>
+      </c>
+      <c r="E714" t="n">
+        <v>4467.43994140625</v>
+      </c>
+      <c r="F714" t="n">
+        <v>4467.43994140625</v>
+      </c>
+      <c r="G714" t="n">
+        <v>3529430000</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4487.77978515625</v>
+      </c>
+      <c r="C715" t="n">
+        <v>4511.990234375</v>
+      </c>
+      <c r="D715" t="n">
+        <v>4478.68994140625</v>
+      </c>
+      <c r="E715" t="n">
+        <v>4505.10009765625</v>
+      </c>
+      <c r="F715" t="n">
+        <v>4505.10009765625</v>
+      </c>
+      <c r="G715" t="n">
+        <v>3648720000</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B716" t="n">
+        <v>4497.97998046875</v>
+      </c>
+      <c r="C716" t="n">
+        <v>4497.97998046875</v>
+      </c>
+      <c r="D716" t="n">
+        <v>4447.2099609375</v>
+      </c>
+      <c r="E716" t="n">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="F716" t="n">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="G716" t="n">
+        <v>6932230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:G754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16916,6 +16916,880 @@
         <v>6932230000</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4497.97998046875</v>
+      </c>
+      <c r="C717" t="n">
+        <v>4497.97998046875</v>
+      </c>
+      <c r="D717" t="n">
+        <v>4447.2099609375</v>
+      </c>
+      <c r="E717" t="n">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="F717" t="n">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="G717" t="n">
+        <v>6932230000</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B718" t="n">
+        <v>4497.97998046875</v>
+      </c>
+      <c r="C718" t="n">
+        <v>4497.97998046875</v>
+      </c>
+      <c r="D718" t="n">
+        <v>4447.2099609375</v>
+      </c>
+      <c r="E718" t="n">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="F718" t="n">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="G718" t="n">
+        <v>6932230000</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4445.1298828125</v>
+      </c>
+      <c r="C719" t="n">
+        <v>4466.35986328125</v>
+      </c>
+      <c r="D719" t="n">
+        <v>4442.10986328125</v>
+      </c>
+      <c r="E719" t="n">
+        <v>4453.52978515625</v>
+      </c>
+      <c r="F719" t="n">
+        <v>4453.52978515625</v>
+      </c>
+      <c r="G719" t="n">
+        <v>3161230000</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4445.41015625</v>
+      </c>
+      <c r="C720" t="n">
+        <v>4449.85009765625</v>
+      </c>
+      <c r="D720" t="n">
+        <v>4416.60986328125</v>
+      </c>
+      <c r="E720" t="n">
+        <v>4443.9501953125</v>
+      </c>
+      <c r="F720" t="n">
+        <v>4443.9501953125</v>
+      </c>
+      <c r="G720" t="n">
+        <v>3614880000</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B721" t="n">
+        <v>4452.81005859375</v>
+      </c>
+      <c r="C721" t="n">
+        <v>4461.02978515625</v>
+      </c>
+      <c r="D721" t="n">
+        <v>4401.3798828125</v>
+      </c>
+      <c r="E721" t="n">
+        <v>4402.2001953125</v>
+      </c>
+      <c r="F721" t="n">
+        <v>4402.2001953125</v>
+      </c>
+      <c r="G721" t="n">
+        <v>3308450000</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B722" t="n">
+        <v>4374.35986328125</v>
+      </c>
+      <c r="C722" t="n">
+        <v>4375.7001953125</v>
+      </c>
+      <c r="D722" t="n">
+        <v>4329.169921875</v>
+      </c>
+      <c r="E722" t="n">
+        <v>4330</v>
+      </c>
+      <c r="F722" t="n">
+        <v>4330</v>
+      </c>
+      <c r="G722" t="n">
+        <v>3662340000</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B723" t="n">
+        <v>4341.740234375</v>
+      </c>
+      <c r="C723" t="n">
+        <v>4357.39990234375</v>
+      </c>
+      <c r="D723" t="n">
+        <v>4316.490234375</v>
+      </c>
+      <c r="E723" t="n">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="F723" t="n">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="G723" t="n">
+        <v>3349570000</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4341.740234375</v>
+      </c>
+      <c r="C724" t="n">
+        <v>4357.39990234375</v>
+      </c>
+      <c r="D724" t="n">
+        <v>4316.490234375</v>
+      </c>
+      <c r="E724" t="n">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="F724" t="n">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="G724" t="n">
+        <v>3349570000</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B725" t="n">
+        <v>4341.740234375</v>
+      </c>
+      <c r="C725" t="n">
+        <v>4357.39990234375</v>
+      </c>
+      <c r="D725" t="n">
+        <v>4316.490234375</v>
+      </c>
+      <c r="E725" t="n">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="F725" t="n">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="G725" t="n">
+        <v>3349570000</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B726" t="n">
+        <v>4310.6201171875</v>
+      </c>
+      <c r="C726" t="n">
+        <v>4338.509765625</v>
+      </c>
+      <c r="D726" t="n">
+        <v>4302.7001953125</v>
+      </c>
+      <c r="E726" t="n">
+        <v>4337.43994140625</v>
+      </c>
+      <c r="F726" t="n">
+        <v>4337.43994140625</v>
+      </c>
+      <c r="G726" t="n">
+        <v>3195650000</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B727" t="n">
+        <v>4312.8798828125</v>
+      </c>
+      <c r="C727" t="n">
+        <v>4313.009765625</v>
+      </c>
+      <c r="D727" t="n">
+        <v>4265.97998046875</v>
+      </c>
+      <c r="E727" t="n">
+        <v>4273.52978515625</v>
+      </c>
+      <c r="F727" t="n">
+        <v>4273.52978515625</v>
+      </c>
+      <c r="G727" t="n">
+        <v>3472340000</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B728" t="n">
+        <v>4282.6298828125</v>
+      </c>
+      <c r="C728" t="n">
+        <v>4292.06982421875</v>
+      </c>
+      <c r="D728" t="n">
+        <v>4238.6298828125</v>
+      </c>
+      <c r="E728" t="n">
+        <v>4274.509765625</v>
+      </c>
+      <c r="F728" t="n">
+        <v>4274.509765625</v>
+      </c>
+      <c r="G728" t="n">
+        <v>3875880000</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4269.64990234375</v>
+      </c>
+      <c r="C729" t="n">
+        <v>4317.27001953125</v>
+      </c>
+      <c r="D729" t="n">
+        <v>4264.3798828125</v>
+      </c>
+      <c r="E729" t="n">
+        <v>4299.7001953125</v>
+      </c>
+      <c r="F729" t="n">
+        <v>4299.7001953125</v>
+      </c>
+      <c r="G729" t="n">
+        <v>3846230000</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4328.18017578125</v>
+      </c>
+      <c r="C730" t="n">
+        <v>4333.14990234375</v>
+      </c>
+      <c r="D730" t="n">
+        <v>4274.85986328125</v>
+      </c>
+      <c r="E730" t="n">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="F730" t="n">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="G730" t="n">
+        <v>3865960000</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4328.18017578125</v>
+      </c>
+      <c r="C731" t="n">
+        <v>4333.14990234375</v>
+      </c>
+      <c r="D731" t="n">
+        <v>4274.85986328125</v>
+      </c>
+      <c r="E731" t="n">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="F731" t="n">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="G731" t="n">
+        <v>3865960000</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B732" t="n">
+        <v>4328.18017578125</v>
+      </c>
+      <c r="C732" t="n">
+        <v>4333.14990234375</v>
+      </c>
+      <c r="D732" t="n">
+        <v>4274.85986328125</v>
+      </c>
+      <c r="E732" t="n">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="F732" t="n">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="G732" t="n">
+        <v>3865960000</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B733" t="n">
+        <v>4284.52001953125</v>
+      </c>
+      <c r="C733" t="n">
+        <v>4300.580078125</v>
+      </c>
+      <c r="D733" t="n">
+        <v>4260.2099609375</v>
+      </c>
+      <c r="E733" t="n">
+        <v>4288.39013671875</v>
+      </c>
+      <c r="F733" t="n">
+        <v>4288.39013671875</v>
+      </c>
+      <c r="G733" t="n">
+        <v>3938660000</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B734" t="n">
+        <v>4269.75</v>
+      </c>
+      <c r="C734" t="n">
+        <v>4281.14990234375</v>
+      </c>
+      <c r="D734" t="n">
+        <v>4216.4501953125</v>
+      </c>
+      <c r="E734" t="n">
+        <v>4229.4501953125</v>
+      </c>
+      <c r="F734" t="n">
+        <v>4229.4501953125</v>
+      </c>
+      <c r="G734" t="n">
+        <v>3953830000</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4233.830078125</v>
+      </c>
+      <c r="C735" t="n">
+        <v>4268.5</v>
+      </c>
+      <c r="D735" t="n">
+        <v>4220.47998046875</v>
+      </c>
+      <c r="E735" t="n">
+        <v>4263.75</v>
+      </c>
+      <c r="F735" t="n">
+        <v>4263.75</v>
+      </c>
+      <c r="G735" t="n">
+        <v>3777600000</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B736" t="n">
+        <v>4259.31005859375</v>
+      </c>
+      <c r="C736" t="n">
+        <v>4267.1298828125</v>
+      </c>
+      <c r="D736" t="n">
+        <v>4225.91015625</v>
+      </c>
+      <c r="E736" t="n">
+        <v>4258.18994140625</v>
+      </c>
+      <c r="F736" t="n">
+        <v>4258.18994140625</v>
+      </c>
+      <c r="G736" t="n">
+        <v>3581470000</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B737" t="n">
+        <v>4234.7900390625</v>
+      </c>
+      <c r="C737" t="n">
+        <v>4324.10009765625</v>
+      </c>
+      <c r="D737" t="n">
+        <v>4219.5498046875</v>
+      </c>
+      <c r="E737" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="F737" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="G737" t="n">
+        <v>3902030000</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B738" t="n">
+        <v>4234.7900390625</v>
+      </c>
+      <c r="C738" t="n">
+        <v>4324.10009765625</v>
+      </c>
+      <c r="D738" t="n">
+        <v>4219.5498046875</v>
+      </c>
+      <c r="E738" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="F738" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="G738" t="n">
+        <v>3902030000</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B739" t="n">
+        <v>4234.7900390625</v>
+      </c>
+      <c r="C739" t="n">
+        <v>4324.10009765625</v>
+      </c>
+      <c r="D739" t="n">
+        <v>4219.5498046875</v>
+      </c>
+      <c r="E739" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="F739" t="n">
+        <v>4308.5</v>
+      </c>
+      <c r="G739" t="n">
+        <v>3902030000</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4289.02001953125</v>
+      </c>
+      <c r="C740" t="n">
+        <v>4341.72998046875</v>
+      </c>
+      <c r="D740" t="n">
+        <v>4283.7900390625</v>
+      </c>
+      <c r="E740" t="n">
+        <v>4335.66015625</v>
+      </c>
+      <c r="F740" t="n">
+        <v>4335.66015625</v>
+      </c>
+      <c r="G740" t="n">
+        <v>3174630000</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B741" t="n">
+        <v>4339.75</v>
+      </c>
+      <c r="C741" t="n">
+        <v>4385.4599609375</v>
+      </c>
+      <c r="D741" t="n">
+        <v>4339.64013671875</v>
+      </c>
+      <c r="E741" t="n">
+        <v>4358.240234375</v>
+      </c>
+      <c r="F741" t="n">
+        <v>4358.240234375</v>
+      </c>
+      <c r="G741" t="n">
+        <v>3520240000</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B742" t="n">
+        <v>4366.58984375</v>
+      </c>
+      <c r="C742" t="n">
+        <v>4378.64013671875</v>
+      </c>
+      <c r="D742" t="n">
+        <v>4345.33984375</v>
+      </c>
+      <c r="E742" t="n">
+        <v>4376.9501953125</v>
+      </c>
+      <c r="F742" t="n">
+        <v>4376.9501953125</v>
+      </c>
+      <c r="G742" t="n">
+        <v>3601660000</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B743" t="n">
+        <v>4380.93994140625</v>
+      </c>
+      <c r="C743" t="n">
+        <v>4385.85009765625</v>
+      </c>
+      <c r="D743" t="n">
+        <v>4325.43017578125</v>
+      </c>
+      <c r="E743" t="n">
+        <v>4349.60986328125</v>
+      </c>
+      <c r="F743" t="n">
+        <v>4349.60986328125</v>
+      </c>
+      <c r="G743" t="n">
+        <v>3713140000</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B744" t="n">
+        <v>4360.490234375</v>
+      </c>
+      <c r="C744" t="n">
+        <v>4377.10009765625</v>
+      </c>
+      <c r="D744" t="n">
+        <v>4311.97021484375</v>
+      </c>
+      <c r="E744" t="n">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="F744" t="n">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B745" t="n">
+        <v>4360.490234375</v>
+      </c>
+      <c r="C745" t="n">
+        <v>4377.10009765625</v>
+      </c>
+      <c r="D745" t="n">
+        <v>4311.97021484375</v>
+      </c>
+      <c r="E745" t="n">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="F745" t="n">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B746" t="n">
+        <v>4360.490234375</v>
+      </c>
+      <c r="C746" t="n">
+        <v>4377.10009765625</v>
+      </c>
+      <c r="D746" t="n">
+        <v>4311.97021484375</v>
+      </c>
+      <c r="E746" t="n">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="F746" t="n">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B747" t="n">
+        <v>4342.3701171875</v>
+      </c>
+      <c r="C747" t="n">
+        <v>4383.330078125</v>
+      </c>
+      <c r="D747" t="n">
+        <v>4342.3701171875</v>
+      </c>
+      <c r="E747" t="n">
+        <v>4373.6298828125</v>
+      </c>
+      <c r="F747" t="n">
+        <v>4373.6298828125</v>
+      </c>
+      <c r="G747" t="n">
+        <v>3409960000</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4345.22998046875</v>
+      </c>
+      <c r="C748" t="n">
+        <v>4393.56982421875</v>
+      </c>
+      <c r="D748" t="n">
+        <v>4337.5400390625</v>
+      </c>
+      <c r="E748" t="n">
+        <v>4373.2001953125</v>
+      </c>
+      <c r="F748" t="n">
+        <v>4373.2001953125</v>
+      </c>
+      <c r="G748" t="n">
+        <v>3794850000</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4357.35009765625</v>
+      </c>
+      <c r="C749" t="n">
+        <v>4364.2001953125</v>
+      </c>
+      <c r="D749" t="n">
+        <v>4303.83984375</v>
+      </c>
+      <c r="E749" t="n">
+        <v>4314.60009765625</v>
+      </c>
+      <c r="F749" t="n">
+        <v>4314.60009765625</v>
+      </c>
+      <c r="G749" t="n">
+        <v>3686030000</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4321.35986328125</v>
+      </c>
+      <c r="C750" t="n">
+        <v>4339.5400390625</v>
+      </c>
+      <c r="D750" t="n">
+        <v>4269.68994140625</v>
+      </c>
+      <c r="E750" t="n">
+        <v>4278</v>
+      </c>
+      <c r="F750" t="n">
+        <v>4278</v>
+      </c>
+      <c r="G750" t="n">
+        <v>3969730000</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B751" t="n">
+        <v>4273.85009765625</v>
+      </c>
+      <c r="C751" t="n">
+        <v>4276.56005859375</v>
+      </c>
+      <c r="D751" t="n">
+        <v>4223.02978515625</v>
+      </c>
+      <c r="E751" t="n">
+        <v>4224.16015625</v>
+      </c>
+      <c r="F751" t="n">
+        <v>4224.16015625</v>
+      </c>
+      <c r="G751" t="n">
+        <v>4004030000</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B752" t="n">
+        <v>4273.85009765625</v>
+      </c>
+      <c r="C752" t="n">
+        <v>4276.56005859375</v>
+      </c>
+      <c r="D752" t="n">
+        <v>4223.02978515625</v>
+      </c>
+      <c r="E752" t="n">
+        <v>4224.16015625</v>
+      </c>
+      <c r="F752" t="n">
+        <v>4224.16015625</v>
+      </c>
+      <c r="G752" t="n">
+        <v>4004030000</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B753" t="n">
+        <v>4273.85009765625</v>
+      </c>
+      <c r="C753" t="n">
+        <v>4276.56005859375</v>
+      </c>
+      <c r="D753" t="n">
+        <v>4223.02978515625</v>
+      </c>
+      <c r="E753" t="n">
+        <v>4224.16015625</v>
+      </c>
+      <c r="F753" t="n">
+        <v>4224.16015625</v>
+      </c>
+      <c r="G753" t="n">
+        <v>4004030000</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B754" t="n">
+        <v>4210.39990234375</v>
+      </c>
+      <c r="C754" t="n">
+        <v>4255.83984375</v>
+      </c>
+      <c r="D754" t="n">
+        <v>4189.22021484375</v>
+      </c>
+      <c r="E754" t="n">
+        <v>4217.0400390625</v>
+      </c>
+      <c r="F754" t="n">
+        <v>4217.0400390625</v>
+      </c>
+      <c r="G754" t="n">
+        <v>3776100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G754"/>
+  <dimension ref="A1:G758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17790,6 +17790,98 @@
         <v>3776100000</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B755" t="n">
+        <v>4235.7900390625</v>
+      </c>
+      <c r="C755" t="n">
+        <v>4259.3798828125</v>
+      </c>
+      <c r="D755" t="n">
+        <v>4219.43017578125</v>
+      </c>
+      <c r="E755" t="n">
+        <v>4247.68017578125</v>
+      </c>
+      <c r="F755" t="n">
+        <v>4247.68017578125</v>
+      </c>
+      <c r="G755" t="n">
+        <v>3821820000</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>4232.419921875</v>
+      </c>
+      <c r="C756" t="n">
+        <v>4232.419921875</v>
+      </c>
+      <c r="D756" t="n">
+        <v>4181.419921875</v>
+      </c>
+      <c r="E756" t="n">
+        <v>4186.77001953125</v>
+      </c>
+      <c r="F756" t="n">
+        <v>4186.77001953125</v>
+      </c>
+      <c r="G756" t="n">
+        <v>3869370000</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>4175.990234375</v>
+      </c>
+      <c r="C757" t="n">
+        <v>4183.60009765625</v>
+      </c>
+      <c r="D757" t="n">
+        <v>4127.89990234375</v>
+      </c>
+      <c r="E757" t="n">
+        <v>4137.22998046875</v>
+      </c>
+      <c r="F757" t="n">
+        <v>4137.22998046875</v>
+      </c>
+      <c r="G757" t="n">
+        <v>4277640000</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>4152.93017578125</v>
+      </c>
+      <c r="C758" t="n">
+        <v>4156.7001953125</v>
+      </c>
+      <c r="D758" t="n">
+        <v>4103.77978515625</v>
+      </c>
+      <c r="E758" t="n">
+        <v>4117.3701171875</v>
+      </c>
+      <c r="F758" t="n">
+        <v>4117.3701171875</v>
+      </c>
+      <c r="G758" t="n">
+        <v>4019500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G784"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18430,6 +18430,167 @@
         <v>3042810000</v>
       </c>
     </row>
+    <row r="785" spans="1:7">
+      <c r="A785" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B785">
+        <v>4553.0400390625</v>
+      </c>
+      <c r="C785">
+        <v>4568.43017578125</v>
+      </c>
+      <c r="D785">
+        <v>4545.0498046875</v>
+      </c>
+      <c r="E785">
+        <v>4556.6201171875</v>
+      </c>
+      <c r="F785">
+        <v>4556.6201171875</v>
+      </c>
+      <c r="G785">
+        <v>3042810000</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7">
+      <c r="A786" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B786">
+        <v>4555.83984375</v>
+      </c>
+      <c r="C786">
+        <v>4560.31005859375</v>
+      </c>
+      <c r="D786">
+        <v>4552.7998046875</v>
+      </c>
+      <c r="E786">
+        <v>4559.33984375</v>
+      </c>
+      <c r="F786">
+        <v>4559.33984375</v>
+      </c>
+      <c r="G786">
+        <v>1639500000</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7">
+      <c r="A787" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B787">
+        <v>4555.83984375</v>
+      </c>
+      <c r="C787">
+        <v>4560.31005859375</v>
+      </c>
+      <c r="D787">
+        <v>4552.7998046875</v>
+      </c>
+      <c r="E787">
+        <v>4559.33984375</v>
+      </c>
+      <c r="F787">
+        <v>4559.33984375</v>
+      </c>
+      <c r="G787">
+        <v>1639500000</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7">
+      <c r="A788" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B788">
+        <v>4555.83984375</v>
+      </c>
+      <c r="C788">
+        <v>4560.31005859375</v>
+      </c>
+      <c r="D788">
+        <v>4552.7998046875</v>
+      </c>
+      <c r="E788">
+        <v>4559.33984375</v>
+      </c>
+      <c r="F788">
+        <v>4559.33984375</v>
+      </c>
+      <c r="G788">
+        <v>1639500000</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7">
+      <c r="A789" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B789">
+        <v>4554.85986328125</v>
+      </c>
+      <c r="C789">
+        <v>4560.52001953125</v>
+      </c>
+      <c r="D789">
+        <v>4546.31982421875</v>
+      </c>
+      <c r="E789">
+        <v>4550.43017578125</v>
+      </c>
+      <c r="F789">
+        <v>4550.43017578125</v>
+      </c>
+      <c r="G789">
+        <v>3403990000</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7">
+      <c r="A790" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B790">
+        <v>4545.5498046875</v>
+      </c>
+      <c r="C790">
+        <v>4568.14013671875</v>
+      </c>
+      <c r="D790">
+        <v>4540.509765625</v>
+      </c>
+      <c r="E790">
+        <v>4554.89013671875</v>
+      </c>
+      <c r="F790">
+        <v>4554.89013671875</v>
+      </c>
+      <c r="G790">
+        <v>3586240000</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7">
+      <c r="A791" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B791">
+        <v>4571.83984375</v>
+      </c>
+      <c r="C791">
+        <v>4587.64013671875</v>
+      </c>
+      <c r="D791">
+        <v>4547.14990234375</v>
+      </c>
+      <c r="E791">
+        <v>4550.580078125</v>
+      </c>
+      <c r="F791">
+        <v>4550.580078125</v>
+      </c>
+      <c r="G791">
+        <v>2423616000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G727"/>
+  <dimension ref="A1:G740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17119,6 +17119,305 @@
         <v>3126060000</v>
       </c>
     </row>
+    <row r="728" spans="1:7">
+      <c r="A728" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B728">
+        <v>4782.8798828125</v>
+      </c>
+      <c r="C728">
+        <v>4788.43017578125</v>
+      </c>
+      <c r="D728">
+        <v>4751.990234375</v>
+      </c>
+      <c r="E728">
+        <v>4769.830078125</v>
+      </c>
+      <c r="F728">
+        <v>4769.830078125</v>
+      </c>
+      <c r="G728">
+        <v>3126060000</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B729">
+        <v>4782.8798828125</v>
+      </c>
+      <c r="C729">
+        <v>4788.43017578125</v>
+      </c>
+      <c r="D729">
+        <v>4751.990234375</v>
+      </c>
+      <c r="E729">
+        <v>4769.830078125</v>
+      </c>
+      <c r="F729">
+        <v>4769.830078125</v>
+      </c>
+      <c r="G729">
+        <v>3126060000</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B730">
+        <v>4782.8798828125</v>
+      </c>
+      <c r="C730">
+        <v>4788.43017578125</v>
+      </c>
+      <c r="D730">
+        <v>4751.990234375</v>
+      </c>
+      <c r="E730">
+        <v>4769.830078125</v>
+      </c>
+      <c r="F730">
+        <v>4769.830078125</v>
+      </c>
+      <c r="G730">
+        <v>3126060000</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
+      <c r="A731" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B731">
+        <v>4745.2001953125</v>
+      </c>
+      <c r="C731">
+        <v>4754.330078125</v>
+      </c>
+      <c r="D731">
+        <v>4722.669921875</v>
+      </c>
+      <c r="E731">
+        <v>4742.830078125</v>
+      </c>
+      <c r="F731">
+        <v>4742.830078125</v>
+      </c>
+      <c r="G731">
+        <v>3743050000</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
+      <c r="A732" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B732">
+        <v>4725.06982421875</v>
+      </c>
+      <c r="C732">
+        <v>4729.2900390625</v>
+      </c>
+      <c r="D732">
+        <v>4699.7099609375</v>
+      </c>
+      <c r="E732">
+        <v>4704.81005859375</v>
+      </c>
+      <c r="F732">
+        <v>4704.81005859375</v>
+      </c>
+      <c r="G732">
+        <v>3950760000</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
+      <c r="A733" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B733">
+        <v>4697.419921875</v>
+      </c>
+      <c r="C733">
+        <v>4726.77978515625</v>
+      </c>
+      <c r="D733">
+        <v>4687.52978515625</v>
+      </c>
+      <c r="E733">
+        <v>4688.68017578125</v>
+      </c>
+      <c r="F733">
+        <v>4688.68017578125</v>
+      </c>
+      <c r="G733">
+        <v>3715480000</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
+      <c r="A734" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B734">
+        <v>4690.56982421875</v>
+      </c>
+      <c r="C734">
+        <v>4721.490234375</v>
+      </c>
+      <c r="D734">
+        <v>4682.10986328125</v>
+      </c>
+      <c r="E734">
+        <v>4697.240234375</v>
+      </c>
+      <c r="F734">
+        <v>4697.240234375</v>
+      </c>
+      <c r="G734">
+        <v>3844370000</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
+      <c r="A735" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B735">
+        <v>4690.56982421875</v>
+      </c>
+      <c r="C735">
+        <v>4721.490234375</v>
+      </c>
+      <c r="D735">
+        <v>4682.10986328125</v>
+      </c>
+      <c r="E735">
+        <v>4697.240234375</v>
+      </c>
+      <c r="F735">
+        <v>4697.240234375</v>
+      </c>
+      <c r="G735">
+        <v>3844370000</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
+      <c r="A736" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B736">
+        <v>4690.56982421875</v>
+      </c>
+      <c r="C736">
+        <v>4721.490234375</v>
+      </c>
+      <c r="D736">
+        <v>4682.10986328125</v>
+      </c>
+      <c r="E736">
+        <v>4697.240234375</v>
+      </c>
+      <c r="F736">
+        <v>4697.240234375</v>
+      </c>
+      <c r="G736">
+        <v>3844370000</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7">
+      <c r="A737" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B737">
+        <v>4703.7001953125</v>
+      </c>
+      <c r="C737">
+        <v>4764.5400390625</v>
+      </c>
+      <c r="D737">
+        <v>4699.81982421875</v>
+      </c>
+      <c r="E737">
+        <v>4763.5400390625</v>
+      </c>
+      <c r="F737">
+        <v>4763.5400390625</v>
+      </c>
+      <c r="G737">
+        <v>3742320000</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7">
+      <c r="A738" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B738">
+        <v>4741.93017578125</v>
+      </c>
+      <c r="C738">
+        <v>4765.47021484375</v>
+      </c>
+      <c r="D738">
+        <v>4730.35009765625</v>
+      </c>
+      <c r="E738">
+        <v>4756.5</v>
+      </c>
+      <c r="F738">
+        <v>4756.5</v>
+      </c>
+      <c r="G738">
+        <v>3529960000</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
+      <c r="A739" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B739">
+        <v>4759.93994140625</v>
+      </c>
+      <c r="C739">
+        <v>4790.7998046875</v>
+      </c>
+      <c r="D739">
+        <v>4756.2001953125</v>
+      </c>
+      <c r="E739">
+        <v>4783.4501953125</v>
+      </c>
+      <c r="F739">
+        <v>4783.4501953125</v>
+      </c>
+      <c r="G739">
+        <v>3498680000</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7">
+      <c r="A740" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B740">
+        <v>4792.1298828125</v>
+      </c>
+      <c r="C740">
+        <v>4798.5</v>
+      </c>
+      <c r="D740">
+        <v>4739.580078125</v>
+      </c>
+      <c r="E740">
+        <v>4780.240234375</v>
+      </c>
+      <c r="F740">
+        <v>4780.240234375</v>
+      </c>
+      <c r="G740">
+        <v>2320939000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/S&P 500.xlsx
+++ b/NetLiquidity/CompAssets/S&P 500.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1133"/>
+  <dimension ref="A1:G1144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26457,6 +26457,259 @@
         <v>3912990000</v>
       </c>
     </row>
+    <row r="1134" spans="1:7">
+      <c r="A1134" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B1134">
+        <v>5004.169921875</v>
+      </c>
+      <c r="C1134">
+        <v>5030.06005859375</v>
+      </c>
+      <c r="D1134">
+        <v>5000.33984375</v>
+      </c>
+      <c r="E1134">
+        <v>5026.60986328125</v>
+      </c>
+      <c r="F1134">
+        <v>5026.60986328125</v>
+      </c>
+      <c r="G1134">
+        <v>3912990000</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7">
+      <c r="A1135" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B1135">
+        <v>5004.169921875</v>
+      </c>
+      <c r="C1135">
+        <v>5030.06005859375</v>
+      </c>
+      <c r="D1135">
+        <v>5000.33984375</v>
+      </c>
+      <c r="E1135">
+        <v>5026.60986328125</v>
+      </c>
+      <c r="F1135">
+        <v>5026.60986328125</v>
+      </c>
+      <c r="G1135">
+        <v>3912990000</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7">
+      <c r="A1136" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B1136">
+        <v>5026.830078125</v>
+      </c>
+      <c r="C1136">
+        <v>5048.39013671875</v>
+      </c>
+      <c r="D1136">
+        <v>5016.830078125</v>
+      </c>
+      <c r="E1136">
+        <v>5021.83984375</v>
+      </c>
+      <c r="F1136">
+        <v>5021.83984375</v>
+      </c>
+      <c r="G1136">
+        <v>3805740000</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7">
+      <c r="A1137" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B1137">
+        <v>4967.93994140625</v>
+      </c>
+      <c r="C1137">
+        <v>4971.2998046875</v>
+      </c>
+      <c r="D1137">
+        <v>4920.31005859375</v>
+      </c>
+      <c r="E1137">
+        <v>4953.169921875</v>
+      </c>
+      <c r="F1137">
+        <v>4953.169921875</v>
+      </c>
+      <c r="G1137">
+        <v>4302190000</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7">
+      <c r="A1138" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B1138">
+        <v>4976.43994140625</v>
+      </c>
+      <c r="C1138">
+        <v>5002.52001953125</v>
+      </c>
+      <c r="D1138">
+        <v>4956.4501953125</v>
+      </c>
+      <c r="E1138">
+        <v>5000.6201171875</v>
+      </c>
+      <c r="F1138">
+        <v>5000.6201171875</v>
+      </c>
+      <c r="G1138">
+        <v>3845600000</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7">
+      <c r="A1139" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B1139">
+        <v>5003.14013671875</v>
+      </c>
+      <c r="C1139">
+        <v>5032.72021484375</v>
+      </c>
+      <c r="D1139">
+        <v>4999.43994140625</v>
+      </c>
+      <c r="E1139">
+        <v>5029.72998046875</v>
+      </c>
+      <c r="F1139">
+        <v>5029.72998046875</v>
+      </c>
+      <c r="G1139">
+        <v>4137970000</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7">
+      <c r="A1140" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B1140">
+        <v>5031.1298828125</v>
+      </c>
+      <c r="C1140">
+        <v>5038.7001953125</v>
+      </c>
+      <c r="D1140">
+        <v>4999.52001953125</v>
+      </c>
+      <c r="E1140">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="F1140">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="G1140">
+        <v>3833270000</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7">
+      <c r="A1141" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B1141">
+        <v>5031.1298828125</v>
+      </c>
+      <c r="C1141">
+        <v>5038.7001953125</v>
+      </c>
+      <c r="D1141">
+        <v>4999.52001953125</v>
+      </c>
+      <c r="E1141">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="F1141">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="G1141">
+        <v>3833270000</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7">
+      <c r="A1142" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B1142">
+        <v>5031.1298828125</v>
+      </c>
+      <c r="C1142">
+        <v>5038.7001953125</v>
+      </c>
+      <c r="D1142">
+        <v>4999.52001953125</v>
+      </c>
+      <c r="E1142">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="F1142">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="G1142">
+        <v>3833270000</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7">
+      <c r="A1143" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B1143">
+        <v>5031.1298828125</v>
+      </c>
+      <c r="C1143">
+        <v>5038.7001953125</v>
+      </c>
+      <c r="D1143">
+        <v>4999.52001953125</v>
+      </c>
+      <c r="E1143">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="F1143">
+        <v>5005.56982421875</v>
+      </c>
+      <c r="G1143">
+        <v>3833270000</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7">
+      <c r="A1144" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B1144">
+        <v>5031.1298828125</v>
+      </c>
+      <c r="C1144">
+        <v>4993.7099609375</v>
+      </c>
+      <c r="D1144">
+        <v>4955.02001953125</v>
+      </c>
+      <c r="E1144">
+        <v>4975.509765625</v>
+      </c>
+      <c r="F1144">
+        <v>4975.509765625</v>
+      </c>
+      <c r="G1144">
+        <v>2454586000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
